--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="16900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,12 +18,143 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+  <si>
+    <t>Berklee ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Bob Kelso</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Edward Meechum</t>
+  </si>
+  <si>
+    <t>Jessica Jones</t>
+  </si>
+  <si>
+    <t>Mark Twain</t>
+  </si>
+  <si>
+    <t>Rock Strongo</t>
+  </si>
+  <si>
+    <t>Tom Ashbrook</t>
+  </si>
+  <si>
+    <t>Condoleeza Rice</t>
+  </si>
+  <si>
+    <t>Donella Meadows</t>
+  </si>
+  <si>
+    <t>Michel Foucault</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>BM4.UNDL</t>
+  </si>
+  <si>
+    <t>PDM.UNDL</t>
+  </si>
+  <si>
+    <t>SNM.POST</t>
+  </si>
+  <si>
+    <t>Credits Enrolled</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>0360009</t>
+  </si>
+  <si>
+    <t>0213906</t>
+  </si>
+  <si>
+    <t>0770027</t>
+  </si>
+  <si>
+    <t>0480151</t>
+  </si>
+  <si>
+    <t>0139531</t>
+  </si>
+  <si>
+    <t>0965643</t>
+  </si>
+  <si>
+    <t>0626394</t>
+  </si>
+  <si>
+    <t>0900882</t>
+  </si>
+  <si>
+    <t>0590486</t>
+  </si>
+  <si>
+    <t>0471104</t>
+  </si>
+  <si>
+    <t>Data Columns</t>
+  </si>
+  <si>
+    <t>Challenge Columns</t>
+  </si>
+  <si>
+    <t>1-a</t>
+  </si>
+  <si>
+    <t>1-b</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -47,13 +177,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,30 +541,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="A3:A12" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="35700" yWindow="-6920" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="indexes" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
   <si>
     <t>Berklee ID</t>
   </si>
@@ -111,23 +112,297 @@
     <t>0471104</t>
   </si>
   <si>
-    <t>Data Columns</t>
-  </si>
-  <si>
-    <t>Challenge Columns</t>
-  </si>
-  <si>
-    <t>1-a</t>
-  </si>
-  <si>
-    <t>1-b</t>
+    <t>TWO.UNDL</t>
+  </si>
+  <si>
+    <t>APPM</t>
+  </si>
+  <si>
+    <t>ARCM</t>
+  </si>
+  <si>
+    <t>ARRG</t>
+  </si>
+  <si>
+    <t>AUDR</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>CPGJ</t>
+  </si>
+  <si>
+    <t>CPPD</t>
+  </si>
+  <si>
+    <t>CPRF</t>
+  </si>
+  <si>
+    <t>CSPF</t>
+  </si>
+  <si>
+    <t>CWPR</t>
+  </si>
+  <si>
+    <t>ELEC</t>
+  </si>
+  <si>
+    <t>ELPD</t>
+  </si>
+  <si>
+    <t>FILM</t>
+  </si>
+  <si>
+    <t>GEMB</t>
+  </si>
+  <si>
+    <t>JCAR</t>
+  </si>
+  <si>
+    <t>JCMP</t>
+  </si>
+  <si>
+    <t>MBUS</t>
+  </si>
+  <si>
+    <t>MPED</t>
+  </si>
+  <si>
+    <t>MPTI</t>
+  </si>
+  <si>
+    <t>MSYN</t>
+  </si>
+  <si>
+    <t>MTHE</t>
+  </si>
+  <si>
+    <t>MUED</t>
+  </si>
+  <si>
+    <t>MUTI</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>OCFTG</t>
+  </si>
+  <si>
+    <t>OCFVM</t>
+  </si>
+  <si>
+    <t>OEMSD</t>
+  </si>
+  <si>
+    <t>OGUIT</t>
+  </si>
+  <si>
+    <t>OIDMS</t>
+  </si>
+  <si>
+    <t>OMBUS</t>
+  </si>
+  <si>
+    <t>OMPRD</t>
+  </si>
+  <si>
+    <t>OSONG</t>
+  </si>
+  <si>
+    <t>OUNDL</t>
+  </si>
+  <si>
+    <t>PERF</t>
+  </si>
+  <si>
+    <t>PROM</t>
+  </si>
+  <si>
+    <t>SBND</t>
+  </si>
+  <si>
+    <t>SFTV</t>
+  </si>
+  <si>
+    <t>SONG</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>TPRF</t>
+  </si>
+  <si>
+    <t>UNDL</t>
+  </si>
+  <si>
+    <t>Applied Music</t>
+  </si>
+  <si>
+    <t>Arranging &amp; Composition</t>
+  </si>
+  <si>
+    <t>Arranging</t>
+  </si>
+  <si>
+    <t>Audio Recording</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Contemporary Performance (Global Jazz)</t>
+  </si>
+  <si>
+    <t>Contemporary Performance (Prod Concert)</t>
+  </si>
+  <si>
+    <t>Contemporary Performance (Production)</t>
+  </si>
+  <si>
+    <t>Contemporary Studio Performance</t>
+  </si>
+  <si>
+    <t>Contemporary Writing &amp; Production</t>
+  </si>
+  <si>
+    <t>Electronic Music</t>
+  </si>
+  <si>
+    <t>Electronic Production &amp; Design</t>
+  </si>
+  <si>
+    <t>Film Scoring</t>
+  </si>
+  <si>
+    <t>Global Entertainment &amp; Music Business</t>
+  </si>
+  <si>
+    <t>Jazz Composition &amp; Arranging</t>
+  </si>
+  <si>
+    <t>Jazz Composition</t>
+  </si>
+  <si>
+    <t>Music Business / Management</t>
+  </si>
+  <si>
+    <t>Music Production &amp; Engineering</t>
+  </si>
+  <si>
+    <t>Music Prod, Tech, &amp; Innovation</t>
+  </si>
+  <si>
+    <t>Music Synthesis</t>
+  </si>
+  <si>
+    <t>Music Therapy</t>
+  </si>
+  <si>
+    <t>Music Education</t>
+  </si>
+  <si>
+    <t>Music Technology Innovation</t>
+  </si>
+  <si>
+    <t>Code for Obsolete Majors</t>
+  </si>
+  <si>
+    <t>Music Comp for Film, Tv &amp; Game</t>
+  </si>
+  <si>
+    <t>Composition for Visual Media</t>
+  </si>
+  <si>
+    <t>Electronic Music Production &amp; Sound Design</t>
+  </si>
+  <si>
+    <t>Guitar</t>
+  </si>
+  <si>
+    <t>Interdisciplinary Musis Studies</t>
+  </si>
+  <si>
+    <t>Music Business</t>
+  </si>
+  <si>
+    <t>Music Production</t>
+  </si>
+  <si>
+    <t>Songwriting</t>
+  </si>
+  <si>
+    <t>Undeclared</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Professional Music</t>
+  </si>
+  <si>
+    <t>Symphonic Band Studies</t>
+  </si>
+  <si>
+    <t>Scoring Film, TV, &amp; Video Games</t>
+  </si>
+  <si>
+    <t>Summer Performance Program</t>
+  </si>
+  <si>
+    <t>Traditional Performance</t>
+  </si>
+  <si>
+    <t>Major Code</t>
+  </si>
+  <si>
+    <t>Major Name</t>
+  </si>
+  <si>
+    <t>BM4</t>
+  </si>
+  <si>
+    <t>Program Code</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>PDM</t>
+  </si>
+  <si>
+    <t>TWO</t>
+  </si>
+  <si>
+    <t>SNM</t>
+  </si>
+  <si>
+    <t>Student Non-Matriculated</t>
+  </si>
+  <si>
+    <t>Bachelors</t>
+  </si>
+  <si>
+    <t>Diploma</t>
+  </si>
+  <si>
+    <t>Twelve-Week Only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,12 +435,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,41 +464,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="19">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -557,89 +860,90 @@
     <col min="6" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
         <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -647,13 +951,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -664,16 +968,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -681,13 +985,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -698,16 +1002,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -715,16 +1019,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -732,35 +1036,18 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -768,7 +1055,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:A12" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A11" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -776,4 +1063,400 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D2:E42">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35700" yWindow="-6920" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="33220" yWindow="-7680" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="122">
   <si>
     <t>Berklee ID</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>SNM.POST</t>
-  </si>
-  <si>
-    <t>Credits Enrolled</t>
   </si>
   <si>
     <t>Status</t>
@@ -844,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -855,12 +852,11 @@
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,17 +869,14 @@
       <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E1"/>
       <c r="F1"/>
-      <c r="G1"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -891,16 +884,13 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -908,16 +898,13 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -925,50 +912,41 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -976,16 +954,13 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -993,16 +968,13 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1010,16 +982,13 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1027,16 +996,13 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1044,11 +1010,8 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
+      <c r="D11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1083,368 +1046,368 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iroh\github\excel_challenges\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33220" yWindow="-7680" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="33225" yWindow="-7680" windowWidth="25605" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="indexes" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="425">
   <si>
     <t>Berklee ID</t>
   </si>
@@ -55,9 +60,6 @@
     <t>Donella Meadows</t>
   </si>
   <si>
-    <t>Michel Foucault</t>
-  </si>
-  <si>
     <t>Program</t>
   </si>
   <si>
@@ -67,9 +69,6 @@
     <t>PDM.UNDL</t>
   </si>
   <si>
-    <t>SNM.POST</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -386,6 +385,921 @@
   </si>
   <si>
     <t>Twelve-Week Only</t>
+  </si>
+  <si>
+    <t>MM.PERF</t>
+  </si>
+  <si>
+    <t>UG.POST</t>
+  </si>
+  <si>
+    <t>Joe Problemchild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lang Henrickson  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saran Uhler  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alica Bradsher  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindy Harder  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tandy Duby  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodger Burden  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lulu Schoening  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgianna Mcentee  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shona Mikel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naoma Irey  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alonso Brannen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inell Gory  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masako Onorato  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delia Wooton  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasandra Antonio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arron Galindo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joanna Voit  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delena Tippett  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelina Cartagena  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noelia Kantor  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosy Mak  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nohemi Navarre  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimbra Croney  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dori Stours  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barry Maurin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elena Maher  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ji Prochnow  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vernita Starnes  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lurline Hatchell  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamesha Lehn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melodi Janusz  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syreeta Hoyle  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephan Mabie  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edda Baines  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Malpass  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amos Charney  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olga Keirn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modesta Dubin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otilia Hempstead  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Futral  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terri Bosco  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shela Head  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millard Hefley  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keneth Allis  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willard Lora  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenia Remington  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita Giambrone  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnette Basilio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emeline Mungin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maude Tellez  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos Schwartzman  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelynn Mchone  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marlyn Summy  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gisela Smyre  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisa Blaisdell  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yahaira Sparks  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shantelle Yockey  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todd Vasquez  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vashti Depew  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrett Mikkelson  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scot Wharton  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynda Carpenter  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pauline Clear  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aretha Patino  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu Gullett  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aletha Cammack  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karan Cieslak  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Reep  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zelda Magwood  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davida Dorrell  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachele Wommack  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherise Carollo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charita Tenenbaum  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garnet Patnaude  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allene Fisch  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fidelia Hill  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terence Brasfield  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiana Towery  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ailene Maroon  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicidad Sheard  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunshine Coughlin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janene Kovach  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmina Nellis  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angila Romo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosea Alex  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassie Hubley  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauralee Sloat  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keenan Reigle  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wen Temme  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antony Mayhall  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madeleine Hayton  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawanna Einhorn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annette Jutras  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitty Winner  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fern Saenger  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krysta Mccullough  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milda Errico  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addie Guy  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanita Hinkson  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeneva Ducan  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timothy Durrah  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonda Howland  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherril Adamo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magda Swims  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Hemenway  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jolanda Dubin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salena Halper  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meridith Barris  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonna Reedy  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandra Delvecchio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucien Birge  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirk Titsworth  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keven Mcwhorter  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augustine Gose  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annice Arvizo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancey Behringer  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irving Sauro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgine Toman  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lai Tabor  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clelia Lampe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu Mcfaul  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loretta Abdullah  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melda Butterworth  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maren Hosmer  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clemente Bordelon  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaias Vick  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwana Kroger  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillia Leonardo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estell Whiten  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carroll Ordaz  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leora Forbus  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Mccune  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macy Zalewski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karie Teaster  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Brannan  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marlo Santoyo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kareen Duell  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genevive Baltazar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candyce Petillo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janelle Recalde  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berenice Henson  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blythe Mazzella  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christy Skoglund  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emelina Penning  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magaret Morning  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humberto Worden  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moon Bronder  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallory Fuentez  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laine Giardina  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marti Theurer  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai Maly  </t>
+  </si>
+  <si>
+    <t>0419127</t>
+  </si>
+  <si>
+    <t>0906931</t>
+  </si>
+  <si>
+    <t>0222496</t>
+  </si>
+  <si>
+    <t>0945278</t>
+  </si>
+  <si>
+    <t>0359520</t>
+  </si>
+  <si>
+    <t>0721100</t>
+  </si>
+  <si>
+    <t>0826284</t>
+  </si>
+  <si>
+    <t>0531551</t>
+  </si>
+  <si>
+    <t>0839628</t>
+  </si>
+  <si>
+    <t>0601211</t>
+  </si>
+  <si>
+    <t>0885462</t>
+  </si>
+  <si>
+    <t>0721894</t>
+  </si>
+  <si>
+    <t>0646691</t>
+  </si>
+  <si>
+    <t>0906571</t>
+  </si>
+  <si>
+    <t>0917576</t>
+  </si>
+  <si>
+    <t>0508817</t>
+  </si>
+  <si>
+    <t>0694910</t>
+  </si>
+  <si>
+    <t>0699900</t>
+  </si>
+  <si>
+    <t>0123948</t>
+  </si>
+  <si>
+    <t>0472206</t>
+  </si>
+  <si>
+    <t>0585255</t>
+  </si>
+  <si>
+    <t>0229867</t>
+  </si>
+  <si>
+    <t>0809480</t>
+  </si>
+  <si>
+    <t>0550506</t>
+  </si>
+  <si>
+    <t>0954882</t>
+  </si>
+  <si>
+    <t>0533183</t>
+  </si>
+  <si>
+    <t>0567435</t>
+  </si>
+  <si>
+    <t>0809575</t>
+  </si>
+  <si>
+    <t>0383423</t>
+  </si>
+  <si>
+    <t>0128470</t>
+  </si>
+  <si>
+    <t>0638970</t>
+  </si>
+  <si>
+    <t>0815818</t>
+  </si>
+  <si>
+    <t>0434439</t>
+  </si>
+  <si>
+    <t>0217889</t>
+  </si>
+  <si>
+    <t>0735825</t>
+  </si>
+  <si>
+    <t>0423773</t>
+  </si>
+  <si>
+    <t>0735501</t>
+  </si>
+  <si>
+    <t>0871831</t>
+  </si>
+  <si>
+    <t>0124859</t>
+  </si>
+  <si>
+    <t>0318649</t>
+  </si>
+  <si>
+    <t>0786746</t>
+  </si>
+  <si>
+    <t>0724701</t>
+  </si>
+  <si>
+    <t>0579050</t>
+  </si>
+  <si>
+    <t>0453616</t>
+  </si>
+  <si>
+    <t>0335058</t>
+  </si>
+  <si>
+    <t>0710987</t>
+  </si>
+  <si>
+    <t>0417169</t>
+  </si>
+  <si>
+    <t>0219153</t>
+  </si>
+  <si>
+    <t>0713634</t>
+  </si>
+  <si>
+    <t>0493198</t>
+  </si>
+  <si>
+    <t>0372091</t>
+  </si>
+  <si>
+    <t>0673312</t>
+  </si>
+  <si>
+    <t>0313667</t>
+  </si>
+  <si>
+    <t>0193838</t>
+  </si>
+  <si>
+    <t>0604616</t>
+  </si>
+  <si>
+    <t>0971716</t>
+  </si>
+  <si>
+    <t>0545252</t>
+  </si>
+  <si>
+    <t>0339931</t>
+  </si>
+  <si>
+    <t>0651738</t>
+  </si>
+  <si>
+    <t>0958024</t>
+  </si>
+  <si>
+    <t>0137613</t>
+  </si>
+  <si>
+    <t>0503202</t>
+  </si>
+  <si>
+    <t>0800817</t>
+  </si>
+  <si>
+    <t>0932555</t>
+  </si>
+  <si>
+    <t>0937639</t>
+  </si>
+  <si>
+    <t>0404441</t>
+  </si>
+  <si>
+    <t>0781800</t>
+  </si>
+  <si>
+    <t>0560082</t>
+  </si>
+  <si>
+    <t>0167377</t>
+  </si>
+  <si>
+    <t>0198987</t>
+  </si>
+  <si>
+    <t>0785944</t>
+  </si>
+  <si>
+    <t>0371193</t>
+  </si>
+  <si>
+    <t>0857232</t>
+  </si>
+  <si>
+    <t>0847117</t>
+  </si>
+  <si>
+    <t>0773874</t>
+  </si>
+  <si>
+    <t>0482460</t>
+  </si>
+  <si>
+    <t>0676786</t>
+  </si>
+  <si>
+    <t>0820378</t>
+  </si>
+  <si>
+    <t>0983335</t>
+  </si>
+  <si>
+    <t>0190219</t>
+  </si>
+  <si>
+    <t>0767719</t>
+  </si>
+  <si>
+    <t>0199373</t>
+  </si>
+  <si>
+    <t>0546057</t>
+  </si>
+  <si>
+    <t>0358368</t>
+  </si>
+  <si>
+    <t>0252662</t>
+  </si>
+  <si>
+    <t>0423534</t>
+  </si>
+  <si>
+    <t>0652809</t>
+  </si>
+  <si>
+    <t>0680363</t>
+  </si>
+  <si>
+    <t>0643468</t>
+  </si>
+  <si>
+    <t>0181173</t>
+  </si>
+  <si>
+    <t>0268707</t>
+  </si>
+  <si>
+    <t>0764004</t>
+  </si>
+  <si>
+    <t>0817724</t>
+  </si>
+  <si>
+    <t>0260385</t>
+  </si>
+  <si>
+    <t>0996355</t>
+  </si>
+  <si>
+    <t>0895002</t>
+  </si>
+  <si>
+    <t>0589152</t>
+  </si>
+  <si>
+    <t>0422271</t>
+  </si>
+  <si>
+    <t>0593431</t>
+  </si>
+  <si>
+    <t>0296692</t>
+  </si>
+  <si>
+    <t>0752239</t>
+  </si>
+  <si>
+    <t>0632079</t>
+  </si>
+  <si>
+    <t>0559720</t>
+  </si>
+  <si>
+    <t>0605781</t>
+  </si>
+  <si>
+    <t>0278147</t>
+  </si>
+  <si>
+    <t>0397350</t>
+  </si>
+  <si>
+    <t>0677681</t>
+  </si>
+  <si>
+    <t>0407043</t>
+  </si>
+  <si>
+    <t>0532156</t>
+  </si>
+  <si>
+    <t>0484512</t>
+  </si>
+  <si>
+    <t>0494093</t>
+  </si>
+  <si>
+    <t>0369826</t>
+  </si>
+  <si>
+    <t>0619536</t>
+  </si>
+  <si>
+    <t>0457130</t>
+  </si>
+  <si>
+    <t>0740505</t>
+  </si>
+  <si>
+    <t>0447700</t>
+  </si>
+  <si>
+    <t>0211124</t>
+  </si>
+  <si>
+    <t>0717923</t>
+  </si>
+  <si>
+    <t>0586058</t>
+  </si>
+  <si>
+    <t>0194250</t>
+  </si>
+  <si>
+    <t>0805986</t>
+  </si>
+  <si>
+    <t>0449895</t>
+  </si>
+  <si>
+    <t>0178139</t>
+  </si>
+  <si>
+    <t>0144215</t>
+  </si>
+  <si>
+    <t>0511758</t>
+  </si>
+  <si>
+    <t>0269488</t>
+  </si>
+  <si>
+    <t>0990253</t>
+  </si>
+  <si>
+    <t>0900553</t>
+  </si>
+  <si>
+    <t>0928047</t>
+  </si>
+  <si>
+    <t>0637659</t>
+  </si>
+  <si>
+    <t>0791345</t>
+  </si>
+  <si>
+    <t>0226590</t>
+  </si>
+  <si>
+    <t>0677509</t>
+  </si>
+  <si>
+    <t>0839360</t>
+  </si>
+  <si>
+    <t>0528727</t>
+  </si>
+  <si>
+    <t>0317564</t>
+  </si>
+  <si>
+    <t>0305946</t>
+  </si>
+  <si>
+    <t>0732699</t>
+  </si>
+  <si>
+    <t>0674233</t>
+  </si>
+  <si>
+    <t>0502521</t>
+  </si>
+  <si>
+    <t>0792095</t>
+  </si>
+  <si>
+    <t>0858769</t>
+  </si>
+  <si>
+    <t>0726913</t>
+  </si>
+  <si>
+    <t>0604584</t>
+  </si>
+  <si>
+    <t>0203041</t>
+  </si>
+  <si>
+    <t>0683206</t>
+  </si>
+  <si>
+    <t>0172089</t>
+  </si>
+  <si>
+    <t>0369943</t>
+  </si>
+  <si>
+    <t>0648943</t>
+  </si>
+  <si>
+    <t>0937503</t>
+  </si>
+  <si>
+    <t>0868889</t>
   </si>
 </sst>
 </file>
@@ -516,6 +1430,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -841,22 +1763,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,161 +1784,2289 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>299</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>300</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>307</v>
+      </c>
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>310</v>
+      </c>
+      <c r="B49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>311</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>314</v>
+      </c>
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>316</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>318</v>
+      </c>
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>319</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>320</v>
+      </c>
+      <c r="B59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>321</v>
+      </c>
+      <c r="B60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>322</v>
+      </c>
+      <c r="B61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>323</v>
+      </c>
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>324</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>325</v>
+      </c>
+      <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>326</v>
+      </c>
+      <c r="B65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>328</v>
+      </c>
+      <c r="B67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>330</v>
+      </c>
+      <c r="B69" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>331</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>332</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>333</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>336</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>337</v>
+      </c>
+      <c r="B76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>339</v>
+      </c>
+      <c r="B78" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>340</v>
+      </c>
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>341</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>342</v>
+      </c>
+      <c r="B81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>343</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>344</v>
+      </c>
+      <c r="B83" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>345</v>
+      </c>
+      <c r="B84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>349</v>
+      </c>
+      <c r="B88" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>350</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>351</v>
+      </c>
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>353</v>
+      </c>
+      <c r="B92" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>354</v>
+      </c>
+      <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>355</v>
+      </c>
+      <c r="B94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>356</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>357</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>358</v>
+      </c>
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>359</v>
+      </c>
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>360</v>
+      </c>
+      <c r="B99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>361</v>
+      </c>
+      <c r="B100" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>362</v>
+      </c>
+      <c r="B101" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>363</v>
+      </c>
+      <c r="B102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>364</v>
+      </c>
+      <c r="B103" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>365</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>366</v>
+      </c>
+      <c r="B105" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>367</v>
+      </c>
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>368</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>369</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>370</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>371</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>372</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>373</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>375</v>
+      </c>
+      <c r="B114" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>376</v>
+      </c>
+      <c r="B115" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>377</v>
+      </c>
+      <c r="B116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>378</v>
+      </c>
+      <c r="B117" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>379</v>
+      </c>
+      <c r="B118" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>380</v>
+      </c>
+      <c r="B119" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>381</v>
+      </c>
+      <c r="B120" t="s">
+        <v>230</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>382</v>
+      </c>
+      <c r="B121" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>383</v>
+      </c>
+      <c r="B122" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>384</v>
+      </c>
+      <c r="B123" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>385</v>
+      </c>
+      <c r="B124" t="s">
+        <v>234</v>
+      </c>
+      <c r="C124" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>386</v>
+      </c>
+      <c r="B125" t="s">
+        <v>235</v>
+      </c>
+      <c r="C125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>387</v>
+      </c>
+      <c r="B126" t="s">
+        <v>236</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>388</v>
+      </c>
+      <c r="B127" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>389</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>390</v>
+      </c>
+      <c r="B129" t="s">
+        <v>239</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>391</v>
+      </c>
+      <c r="B130" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>392</v>
+      </c>
+      <c r="B131" t="s">
+        <v>241</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>393</v>
+      </c>
+      <c r="B132" t="s">
+        <v>242</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>394</v>
+      </c>
+      <c r="B133" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>395</v>
+      </c>
+      <c r="B134" t="s">
+        <v>244</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>396</v>
+      </c>
+      <c r="B135" t="s">
+        <v>245</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>397</v>
+      </c>
+      <c r="B136" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>398</v>
+      </c>
+      <c r="B137" t="s">
+        <v>247</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>399</v>
+      </c>
+      <c r="B138" t="s">
+        <v>248</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>400</v>
+      </c>
+      <c r="B139" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>401</v>
+      </c>
+      <c r="B140" t="s">
+        <v>250</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>402</v>
+      </c>
+      <c r="B141" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>403</v>
+      </c>
+      <c r="B142" t="s">
+        <v>252</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>404</v>
+      </c>
+      <c r="B143" t="s">
+        <v>253</v>
+      </c>
+      <c r="C143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>405</v>
+      </c>
+      <c r="B144" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>406</v>
+      </c>
+      <c r="B145" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>407</v>
+      </c>
+      <c r="B146" t="s">
+        <v>256</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>408</v>
+      </c>
+      <c r="B147" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>409</v>
+      </c>
+      <c r="B148" t="s">
+        <v>258</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>410</v>
+      </c>
+      <c r="B149" t="s">
+        <v>259</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>411</v>
+      </c>
+      <c r="B150" t="s">
+        <v>260</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>412</v>
+      </c>
+      <c r="B151" t="s">
+        <v>261</v>
+      </c>
+      <c r="C151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>413</v>
+      </c>
+      <c r="B152" t="s">
+        <v>262</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>414</v>
+      </c>
+      <c r="B153" t="s">
+        <v>263</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>415</v>
+      </c>
+      <c r="B154" t="s">
+        <v>264</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>416</v>
+      </c>
+      <c r="B155" t="s">
+        <v>265</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>417</v>
+      </c>
+      <c r="B156" t="s">
+        <v>266</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>418</v>
+      </c>
+      <c r="B157" t="s">
+        <v>267</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>419</v>
+      </c>
+      <c r="B158" t="s">
+        <v>268</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>420</v>
+      </c>
+      <c r="B159" t="s">
+        <v>269</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>421</v>
+      </c>
+      <c r="B160" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>422</v>
+      </c>
+      <c r="B161" t="s">
+        <v>271</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>423</v>
+      </c>
+      <c r="B162" t="s">
+        <v>272</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>424</v>
+      </c>
+      <c r="B163" t="s">
+        <v>273</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A11" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A13 A14:A163" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1036,378 +4084,378 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B39" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="B42" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
